--- a/public/uploads/result.xlsx
+++ b/public/uploads/result.xlsx
@@ -397,82 +397,66 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>phone_number</v>
+        <v>Member Name</v>
       </c>
       <c r="B1" t="str">
-        <v>name</v>
+        <v>Member No</v>
       </c>
       <c r="C1" t="str">
-        <v>priority</v>
+        <v>Mobile No</v>
       </c>
       <c r="D1" t="str">
+        <v>Loan No</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Due Amt</v>
+      </c>
+      <c r="F1" t="str">
+        <v>Total</v>
+      </c>
+      <c r="G1" t="str">
+        <v>Status</v>
+      </c>
+      <c r="H1" t="str">
         <v>custom_var1</v>
-      </c>
-      <c r="E1" t="str">
-        <v>custom_var2</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>+918086164182</v>
+        <v>BHARGAVI AMMA  V</v>
       </c>
       <c r="B2" t="str">
-        <v>abhi</v>
+        <v>E12318</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>9633843938</v>
       </c>
       <c r="D2" t="str">
-        <v>jake sword1 and jake sword and jake sword and jake sword and jake sword</v>
+        <v xml:space="preserve">959/MPL, 421/MSCC, 1661/MOL, 58/MGPL, 1873/MHN, 475/MFC, 269/MFAP, 268/MFAP, 340/MCCL, </v>
       </c>
       <c r="E2" t="str">
-        <v>engineer</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>+91 90483 38111</v>
-      </c>
-      <c r="B3" t="str">
-        <v>sahal</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="str">
-        <v>mike mendoza and mike mendoza and mike mendoza</v>
-      </c>
-      <c r="E3" t="str">
-        <v>Your_work</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>+639206150514</v>
-      </c>
-      <c r="B4" t="str">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4" t="str">
-        <v>renielle cruz</v>
-      </c>
-      <c r="E4" t="str">
-        <v>lawyer</v>
+        <v xml:space="preserve">257364, 192945, 277023, 1114324, 830889, 277023, 277023, 277023, 612149, </v>
+      </c>
+      <c r="F2">
+        <v>4115763</v>
+      </c>
+      <c r="G2" t="str">
+        <v>in progress</v>
+      </c>
+      <c r="H2" t="str">
+        <v>undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined, undefined</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H2"/>
   </ignoredErrors>
 </worksheet>
 </file>